--- a/biology/Histoire de la zoologie et de la botanique/William_Brodleck_Herms/William_Brodleck_Herms.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Brodleck_Herms/William_Brodleck_Herms.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Brodleck Herms est un entomologiste américain, né le 22 septembre 1876 à Portsmouth et mort le 9 mai 1949.
 Il est le fils de Carl Julius Herman et de Rosa Emma née Brodbeck. Il obtient son Bachelor of Sciences au Baldwin-Wallace College en 1902. Il poursuit ses études à la Western Reserve Université en 1905, puis à Harvard de 1907 à 1908. Il obtient son Master of Arts à l’université d’État de l’Ohio en 1906.
